--- a/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDDEFA2F-3434-42B9-B414-CE2AAD94D3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFC52D2-CF80-439C-8330-3CF4B1D23C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{554259AD-4278-4A55-AA6A-9D01262DA4E9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FD9E3677-3E61-4BE4-91D0-4A37427B3215}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,165 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>11,13%</t>
   </si>
   <si>
@@ -172,142 +310,37 @@
     <t>40,89%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>9,73%</t>
@@ -391,42 +424,150 @@
     <t>41,33%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>11,37%</t>
   </si>
   <si>
@@ -508,145 +649,46 @@
     <t>39,19%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>10,18%</t>
@@ -730,51 +772,129 @@
     <t>39,29%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 47,04%)</t>
   </si>
   <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
     <t>7,88%</t>
   </si>
   <si>
@@ -847,124 +967,40 @@
     <t>52,96%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>6,75%</t>
@@ -1046,42 +1082,6 @@
   </si>
   <si>
     <t>54,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA90DA5-1A9C-4C13-ACB0-924F1E0D92B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF07447-F26D-41C8-809C-6454357602BC}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1863,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>31119</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1878,34 +1878,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>29506</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>93</v>
-      </c>
-      <c r="N10" s="7">
-        <v>60625</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,49 +1914,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>145331</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>128345</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>273676</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,49 +1965,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>100221</v>
+        <v>2507</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>104329</v>
+        <v>5054</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M12" s="7">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>204550</v>
+        <v>7561</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,49 +2016,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>635</v>
+        <v>35695</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
       <c r="I13" s="7">
-        <v>661</v>
+        <v>29397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>1296</v>
+        <v>65091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,49 +2067,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>2216</v>
+        <v>27864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20871</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="7">
+        <v>72</v>
+      </c>
+      <c r="N14" s="7">
+        <v>48735</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>632</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2848</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,102 +2118,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>263473</v>
+        <v>55322</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>810</v>
+        <v>182</v>
       </c>
       <c r="N15" s="7">
-        <v>542994</v>
+        <v>121387</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2507</v>
+        <v>635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>5054</v>
+        <v>661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>7561</v>
+        <v>1296</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,49 +2222,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>35695</v>
+        <v>2216</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>29397</v>
+        <v>632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>65091</v>
+        <v>2848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,49 +2273,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7">
-        <v>27864</v>
+        <v>31119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>20871</v>
+        <v>29506</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>48735</v>
+        <v>60625</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,49 +2324,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>145331</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>128345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>273676</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,46 +2375,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>100221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="7">
+        <v>152</v>
+      </c>
+      <c r="I20" s="7">
+        <v>104329</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>304</v>
+      </c>
+      <c r="N20" s="7">
+        <v>204550</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>89</v>
@@ -2426,49 +2426,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>55322</v>
+        <v>263473</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>182</v>
+        <v>810</v>
       </c>
       <c r="N21" s="7">
-        <v>121387</v>
+        <v>542994</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,49 +2479,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>33626</v>
+        <v>635</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>661</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="7">
-        <v>53</v>
-      </c>
-      <c r="I22" s="7">
-        <v>34560</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1296</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="M22" s="7">
-        <v>104</v>
-      </c>
-      <c r="N22" s="7">
-        <v>68186</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,49 +2530,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>181026</v>
+        <v>2216</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>632</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2848</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="7">
-        <v>236</v>
-      </c>
-      <c r="I23" s="7">
-        <v>157742</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="7">
-        <v>506</v>
-      </c>
-      <c r="N23" s="7">
-        <v>338767</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,49 +2581,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7">
-        <v>128085</v>
+        <v>33626</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="7">
+        <v>53</v>
+      </c>
+      <c r="I24" s="7">
+        <v>34560</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="7">
+        <v>104</v>
+      </c>
+      <c r="N24" s="7">
+        <v>68186</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="7">
-        <v>182</v>
-      </c>
-      <c r="I24" s="7">
-        <v>125200</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M24" s="7">
-        <v>376</v>
-      </c>
-      <c r="N24" s="7">
-        <v>253285</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,49 +2632,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="D25" s="7">
-        <v>635</v>
+        <v>181026</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>236</v>
+      </c>
+      <c r="I25" s="7">
+        <v>157742</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="7">
+        <v>506</v>
+      </c>
+      <c r="N25" s="7">
+        <v>338767</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>661</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1296</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,49 +2683,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="D26" s="7">
-        <v>2216</v>
+        <v>128085</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="7">
+        <v>182</v>
+      </c>
+      <c r="I26" s="7">
+        <v>125200</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>632</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>376</v>
+      </c>
+      <c r="N26" s="7">
+        <v>253285</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M26" s="7">
-        <v>4</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2848</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2740,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>473</v>
@@ -2755,13 +2755,13 @@
         <v>318795</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>992</v>
@@ -2770,13 +2770,13 @@
         <v>664382</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5D68D2-F215-4A21-8C2D-5522DE529EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC553B-943E-433D-9005-09C3BEF8936E}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3185,49 +3185,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>29979</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19382</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="7">
-        <v>73</v>
-      </c>
-      <c r="N10" s="7">
-        <v>49361</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3236,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>122543</v>
+        <v>673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>148117</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>387</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>270659</v>
+        <v>673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3287,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>104500</v>
+        <v>3596</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>75239</v>
+        <v>4750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>179739</v>
+        <v>8345</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,49 +3338,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>1321</v>
+        <v>37112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>1741</v>
+        <v>35753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="N13" s="7">
-        <v>3062</v>
+        <v>72865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,49 +3389,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>5316</v>
+        <v>24793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>2720</v>
+        <v>28580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>8036</v>
+        <v>53373</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,102 +3440,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>388</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>263659</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>352</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>247199</v>
+        <v>69082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>740</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>510857</v>
+        <v>135256</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>3596</v>
+        <v>1321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>4750</v>
+        <v>1741</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>8345</v>
+        <v>3062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,49 +3544,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>37112</v>
+        <v>5316</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>35753</v>
+        <v>2720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>72865</v>
+        <v>8036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3595,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>24793</v>
+        <v>29979</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>28580</v>
+        <v>19382</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="M18" s="7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N18" s="7">
-        <v>53373</v>
+        <v>49361</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,49 +3646,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>122543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>148117</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>270659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,46 +3697,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7">
-        <v>673</v>
+        <v>104500</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="7">
+        <v>109</v>
+      </c>
+      <c r="I20" s="7">
+        <v>75239</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" s="7">
+        <v>264</v>
+      </c>
+      <c r="N20" s="7">
+        <v>179739</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>673</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>202</v>
@@ -3748,49 +3748,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>263659</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>69082</v>
+        <v>247199</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>740</v>
       </c>
       <c r="N21" s="7">
-        <v>135256</v>
+        <v>510857</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,49 +3801,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>33575</v>
+        <v>1321</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1741</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="7">
-        <v>35</v>
-      </c>
-      <c r="I22" s="7">
-        <v>24132</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3062</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M22" s="7">
-        <v>85</v>
-      </c>
-      <c r="N22" s="7">
-        <v>57706</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,49 +3852,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>159655</v>
+        <v>5989</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2720</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>13</v>
+      </c>
+      <c r="N23" s="7">
+        <v>8709</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H23" s="7">
-        <v>259</v>
-      </c>
-      <c r="I23" s="7">
-        <v>183869</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M23" s="7">
-        <v>488</v>
-      </c>
-      <c r="N23" s="7">
-        <v>343524</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,49 +3903,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>129293</v>
+        <v>33575</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" s="7">
+        <v>35</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24132</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>85</v>
+      </c>
+      <c r="N24" s="7">
+        <v>57706</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H24" s="7">
-        <v>149</v>
-      </c>
-      <c r="I24" s="7">
-        <v>103819</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M24" s="7">
-        <v>339</v>
-      </c>
-      <c r="N24" s="7">
-        <v>233112</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,49 +3954,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="D25" s="7">
-        <v>1321</v>
+        <v>159655</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="7">
+        <v>259</v>
+      </c>
+      <c r="I25" s="7">
+        <v>183869</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1741</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>488</v>
+      </c>
+      <c r="N25" s="7">
+        <v>343524</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3062</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,10 +4005,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="D26" s="7">
-        <v>5989</v>
+        <v>129293</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>235</v>
@@ -4020,10 +4020,10 @@
         <v>237</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="I26" s="7">
-        <v>2720</v>
+        <v>103819</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>238</v>
@@ -4035,10 +4035,10 @@
         <v>240</v>
       </c>
       <c r="M26" s="7">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="N26" s="7">
-        <v>8709</v>
+        <v>233112</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>241</v>
@@ -4062,13 +4062,13 @@
         <v>329833</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>449</v>
@@ -4077,13 +4077,13 @@
         <v>316280</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>929</v>
@@ -4092,13 +4092,13 @@
         <v>646113</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4BAE6C-E40C-4A62-B519-01AB08DC7DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E880A86B-172F-4270-98FA-E00B295D3AD5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4507,49 +4507,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>22052</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>20799</v>
+        <v>646</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>646</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="7">
-        <v>62</v>
-      </c>
-      <c r="N10" s="7">
-        <v>42851</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,49 +4558,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>114553</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>113105</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>227658</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,49 +4609,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>141121</v>
+        <v>2110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>126407</v>
+        <v>1692</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
-        <v>363</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>267528</v>
+        <v>3802</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,49 +4660,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>588</v>
+        <v>23842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>993</v>
+        <v>41921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>1580</v>
+        <v>65762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4711,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D14" s="7">
-        <v>1397</v>
+        <v>52483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="7">
+        <v>70</v>
+      </c>
+      <c r="I14" s="7">
+        <v>47254</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3294</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>145</v>
+      </c>
+      <c r="N14" s="7">
+        <v>99737</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4691</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,102 +4762,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>378</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>279711</v>
+        <v>78435</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>264597</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>749</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>544308</v>
+        <v>169948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2110</v>
+        <v>588</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>993</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1580</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1692</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3802</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,49 +4866,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>23842</v>
+        <v>1397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>41921</v>
+        <v>3294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>65762</v>
+        <v>4691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,49 +4917,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>52483</v>
+        <v>22052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>47254</v>
+        <v>20799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="N18" s="7">
-        <v>99737</v>
+        <v>42851</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,49 +4968,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>114553</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="I19" s="7">
-        <v>646</v>
+        <v>113105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="N19" s="7">
-        <v>646</v>
+        <v>227658</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,46 +5019,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>141121</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="7">
+        <v>174</v>
+      </c>
+      <c r="I20" s="7">
+        <v>126407</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M20" s="7">
+        <v>363</v>
+      </c>
+      <c r="N20" s="7">
+        <v>267528</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>308</v>
@@ -5070,49 +5070,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="D21" s="7">
-        <v>78435</v>
+        <v>279711</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>264597</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>251</v>
+        <v>749</v>
       </c>
       <c r="N21" s="7">
-        <v>169948</v>
+        <v>544308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,49 +5123,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>24162</v>
+        <v>588</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1638</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H22" s="7">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22491</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2226</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M22" s="7">
-        <v>68</v>
-      </c>
-      <c r="N22" s="7">
-        <v>46653</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,49 +5174,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>138395</v>
+        <v>1397</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3294</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>7</v>
+      </c>
+      <c r="N23" s="7">
+        <v>4691</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H23" s="7">
-        <v>224</v>
-      </c>
-      <c r="I23" s="7">
-        <v>155025</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M23" s="7">
-        <v>414</v>
-      </c>
-      <c r="N23" s="7">
-        <v>293420</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,49 +5225,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>193604</v>
+        <v>24162</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="7">
+        <v>34</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22491</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M24" s="7">
+        <v>68</v>
+      </c>
+      <c r="N24" s="7">
+        <v>46653</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="H24" s="7">
-        <v>244</v>
-      </c>
-      <c r="I24" s="7">
-        <v>173661</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M24" s="7">
-        <v>508</v>
-      </c>
-      <c r="N24" s="7">
-        <v>367265</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,49 +5276,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="D25" s="7">
-        <v>588</v>
+        <v>138395</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" s="7">
+        <v>224</v>
+      </c>
+      <c r="I25" s="7">
+        <v>155025</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M25" s="7">
+        <v>414</v>
+      </c>
+      <c r="N25" s="7">
+        <v>293420</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1638</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2226</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,46 +5327,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="D26" s="7">
-        <v>1397</v>
+        <v>193604</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>244</v>
+      </c>
+      <c r="I26" s="7">
+        <v>173661</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3294</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>508</v>
+      </c>
+      <c r="N26" s="7">
+        <v>367265</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M26" s="7">
-        <v>7</v>
-      </c>
-      <c r="N26" s="7">
-        <v>4691</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>347</v>
@@ -5384,13 +5384,13 @@
         <v>358146</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5399,13 +5399,13 @@
         <v>356110</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>1000</v>
@@ -5414,13 +5414,13 @@
         <v>714256</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFC52D2-CF80-439C-8330-3CF4B1D23C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87586305-87A2-4D04-9D09-760C69ED7754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FD9E3677-3E61-4BE4-91D0-4A37427B3215}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEF82B91-519E-443F-B48B-8F79266FF65F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="355">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -67,913 +67,1033 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,8%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>53,62%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -982,106 +1102,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>0,94%</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1113,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1188,39 +1209,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1272,7 +1293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1383,13 +1404,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1398,6 +1412,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1462,19 +1483,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF07447-F26D-41C8-809C-6454357602BC}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB55063-113D-4D03-B993-F01F917E3FA6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1865,47 +1906,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,47 +1951,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,49 +1994,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,49 +2039,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
-      </c>
-      <c r="D13" s="7">
-        <v>35695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
-      </c>
-      <c r="N13" s="7">
-        <v>65091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,49 +2084,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7">
-        <v>27864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>72</v>
-      </c>
-      <c r="N14" s="7">
-        <v>48735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,102 +2129,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>182</v>
-      </c>
-      <c r="N15" s="7">
-        <v>121387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>635</v>
+        <v>51197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>661</v>
+        <v>49238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="N16" s="7">
-        <v>1296</v>
+        <v>100435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,49 +2227,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7">
-        <v>2216</v>
+        <v>77701</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I17" s="7">
-        <v>632</v>
+        <v>67871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="N17" s="7">
-        <v>2848</v>
+        <v>145571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,49 +2278,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>31119</v>
+        <v>10486</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>29506</v>
+        <v>9065</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>60625</v>
+        <v>19552</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,49 +2329,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>145331</v>
+        <v>1496</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>128345</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>407</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>273676</v>
+        <v>1496</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,49 +2380,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>100221</v>
+        <v>635</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>104329</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>204550</v>
+        <v>635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,102 +2431,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="I21" s="7">
-        <v>263473</v>
+        <v>126174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>810</v>
+        <v>401</v>
       </c>
       <c r="N21" s="7">
-        <v>542994</v>
+        <v>267689</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="D22" s="7">
-        <v>635</v>
+        <v>76888</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="I22" s="7">
-        <v>661</v>
+        <v>75962</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="N22" s="7">
-        <v>1296</v>
+        <v>152850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,49 +2535,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="D23" s="7">
-        <v>2216</v>
+        <v>103325</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="I23" s="7">
-        <v>632</v>
+        <v>89871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="N23" s="7">
-        <v>2848</v>
+        <v>193196</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,49 +2586,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7">
-        <v>33626</v>
+        <v>23140</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I24" s="7">
-        <v>34560</v>
+        <v>25495</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="N24" s="7">
-        <v>68186</v>
+        <v>48634</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,49 +2637,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>181026</v>
+        <v>719</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>157742</v>
+        <v>632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>338767</v>
+        <v>1352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,49 +2688,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>128085</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>125200</v>
+        <v>661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>253285</v>
+        <v>661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,55 +2739,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
+        <v>284</v>
+      </c>
+      <c r="I27" s="7">
+        <v>192621</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="7">
+        <v>591</v>
+      </c>
+      <c r="N27" s="7">
+        <v>396693</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>194</v>
+      </c>
+      <c r="D28" s="7">
+        <v>128085</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="7">
+        <v>182</v>
+      </c>
+      <c r="I28" s="7">
+        <v>125200</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="7">
+        <v>376</v>
+      </c>
+      <c r="N28" s="7">
+        <v>253285</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>270</v>
+      </c>
+      <c r="D29" s="7">
+        <v>181026</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="7">
+        <v>236</v>
+      </c>
+      <c r="I29" s="7">
+        <v>157742</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="7">
+        <v>506</v>
+      </c>
+      <c r="N29" s="7">
+        <v>338767</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>51</v>
+      </c>
+      <c r="D30" s="7">
+        <v>33626</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="7">
+        <v>53</v>
+      </c>
+      <c r="I30" s="7">
+        <v>34560</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="7">
+        <v>104</v>
+      </c>
+      <c r="N30" s="7">
+        <v>68186</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2216</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>632</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2848</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>635</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>661</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1296</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>473</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>318795</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="7">
         <v>992</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>664382</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>49</v>
+      <c r="O33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2795,8 +3114,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC553B-943E-433D-9005-09C3BEF8936E}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C9E114-6ADA-47B3-A125-3844DCD204BF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2812,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3187,47 +3506,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3549,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3594,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,49 +3639,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7">
-        <v>37112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>35753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>101</v>
-      </c>
-      <c r="N13" s="7">
-        <v>72865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,49 +3684,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7">
-        <v>24793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>75</v>
-      </c>
-      <c r="N14" s="7">
-        <v>53373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,102 +3729,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>1321</v>
+        <v>60816</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="I16" s="7">
-        <v>1741</v>
+        <v>57156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="N16" s="7">
-        <v>3062</v>
+        <v>117972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,49 +3827,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7">
-        <v>5316</v>
+        <v>81164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="I17" s="7">
-        <v>2720</v>
+        <v>84450</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="N17" s="7">
-        <v>8036</v>
+        <v>165613</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3878,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>29979</v>
+        <v>11354</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>19382</v>
+        <v>9536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N18" s="7">
-        <v>49361</v>
+        <v>20889</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,49 +3929,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>122543</v>
+        <v>2029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>148117</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
-        <v>387</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>270659</v>
+        <v>2029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,49 +3980,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>104500</v>
+        <v>687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>75239</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>179739</v>
+        <v>687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,102 +4031,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>388</v>
+        <v>224</v>
       </c>
       <c r="D21" s="7">
-        <v>263659</v>
+        <v>156049</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>352</v>
+        <v>215</v>
       </c>
       <c r="I21" s="7">
-        <v>247199</v>
+        <v>151141</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>740</v>
+        <v>439</v>
       </c>
       <c r="N21" s="7">
-        <v>510857</v>
+        <v>307190</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>1321</v>
+        <v>68477</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>1741</v>
+        <v>46663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="N22" s="7">
-        <v>3062</v>
+        <v>115140</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,49 +4135,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D23" s="7">
-        <v>5989</v>
+        <v>78491</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="I23" s="7">
-        <v>2720</v>
+        <v>99419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="N23" s="7">
-        <v>8709</v>
+        <v>177911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,49 +4186,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7">
-        <v>33575</v>
+        <v>22221</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="H24" s="7">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7">
-        <v>24132</v>
+        <v>14596</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="M24" s="7">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="N24" s="7">
-        <v>57706</v>
+        <v>36817</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,49 +4237,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>159655</v>
+        <v>3961</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>183869</v>
+        <v>2720</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
-        <v>488</v>
+        <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>343524</v>
+        <v>6681</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,49 +4288,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>129293</v>
+        <v>634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>103819</v>
+        <v>1741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
-        <v>339</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>233112</v>
+        <v>2375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,55 +4339,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>256</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173784</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>165139</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="7">
+        <v>490</v>
+      </c>
+      <c r="N27" s="7">
+        <v>338923</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>190</v>
+      </c>
+      <c r="D28" s="7">
+        <v>129293</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="7">
+        <v>149</v>
+      </c>
+      <c r="I28" s="7">
+        <v>103819</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="7">
+        <v>339</v>
+      </c>
+      <c r="N28" s="7">
+        <v>233112</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>229</v>
+      </c>
+      <c r="D29" s="7">
+        <v>159655</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="7">
+        <v>259</v>
+      </c>
+      <c r="I29" s="7">
+        <v>183869</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="7">
+        <v>488</v>
+      </c>
+      <c r="N29" s="7">
+        <v>343524</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7">
+        <v>33575</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="7">
+        <v>35</v>
+      </c>
+      <c r="I30" s="7">
+        <v>24132</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" s="7">
+        <v>85</v>
+      </c>
+      <c r="N30" s="7">
+        <v>57706</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5989</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2720</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8709</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1321</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1741</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3062</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>329833</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>449</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>316280</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="7">
         <v>929</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>646113</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>49</v>
+      <c r="O33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4117,8 +4714,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E880A86B-172F-4270-98FA-E00B295D3AD5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40300F7E-F2AC-4F42-A62F-7DADC7E4AAA4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4134,7 +4731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4509,47 +5106,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,47 +5151,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,49 +5194,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,49 +5239,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
-      </c>
-      <c r="I13" s="7">
-        <v>41921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
-      </c>
-      <c r="N13" s="7">
-        <v>65762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +5284,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
-      </c>
-      <c r="D14" s="7">
-        <v>52483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>70</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>145</v>
-      </c>
-      <c r="N14" s="7">
-        <v>99737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,102 +5329,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>113</v>
-      </c>
-      <c r="D15" s="7">
-        <v>78435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>251</v>
-      </c>
-      <c r="N15" s="7">
-        <v>169948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="D16" s="7">
-        <v>588</v>
+        <v>106471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="I16" s="7">
-        <v>993</v>
+        <v>101299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="N16" s="7">
-        <v>1580</v>
+        <v>207769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,49 +5427,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>1397</v>
+        <v>67249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="I17" s="7">
-        <v>3294</v>
+        <v>77061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="N17" s="7">
-        <v>4691</v>
+        <v>144310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,49 +5478,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>22052</v>
+        <v>8982</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="H18" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>20799</v>
+        <v>6977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>42851</v>
+        <v>15960</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,49 +5529,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>114553</v>
+        <v>1397</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>113105</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
-        <v>315</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>227658</v>
+        <v>1397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,49 +5580,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>141121</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>126407</v>
+        <v>646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>267528</v>
+        <v>646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,102 +5631,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>378</v>
+        <v>256</v>
       </c>
       <c r="D21" s="7">
-        <v>279711</v>
+        <v>184099</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>264597</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>749</v>
+        <v>523</v>
       </c>
       <c r="N21" s="7">
-        <v>544308</v>
+        <v>370081</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7">
-        <v>588</v>
+        <v>87134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I22" s="7">
-        <v>1638</v>
+        <v>72362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="N22" s="7">
-        <v>2226</v>
+        <v>159496</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,49 +5735,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7">
-        <v>1397</v>
+        <v>71147</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="I23" s="7">
-        <v>3294</v>
+        <v>77964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="N23" s="7">
-        <v>4691</v>
+        <v>149111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,49 +5786,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>24162</v>
+        <v>15180</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>22491</v>
+        <v>15514</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="M24" s="7">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N24" s="7">
-        <v>46653</v>
+        <v>30694</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,49 +5837,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>138395</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>155025</v>
+        <v>3294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="M25" s="7">
-        <v>414</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>293420</v>
+        <v>3294</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,49 +5888,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>193604</v>
+        <v>588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>173661</v>
+        <v>993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>367265</v>
+        <v>1580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,55 +5939,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
+        <v>242</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170127</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="7">
+        <v>477</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344175</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>264</v>
+      </c>
+      <c r="D28" s="7">
+        <v>193604</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" s="7">
+        <v>244</v>
+      </c>
+      <c r="I28" s="7">
+        <v>173661</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M28" s="7">
+        <v>508</v>
+      </c>
+      <c r="N28" s="7">
+        <v>367265</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>190</v>
+      </c>
+      <c r="D29" s="7">
+        <v>138395</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="7">
+        <v>224</v>
+      </c>
+      <c r="I29" s="7">
+        <v>155025</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M29" s="7">
+        <v>414</v>
+      </c>
+      <c r="N29" s="7">
+        <v>293420</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>34</v>
+      </c>
+      <c r="D30" s="7">
+        <v>24162</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H30" s="7">
+        <v>34</v>
+      </c>
+      <c r="I30" s="7">
+        <v>22491</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M30" s="7">
+        <v>68</v>
+      </c>
+      <c r="N30" s="7">
+        <v>46653</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1397</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3294</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4691</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>588</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1638</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2226</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>491</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>358146</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356110</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="7">
         <v>1000</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>714256</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>49</v>
+      <c r="O33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87586305-87A2-4D04-9D09-760C69ED7754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5471D4D-BDD5-499D-A5ED-1083FF98AF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEF82B91-519E-443F-B48B-8F79266FF65F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E30E470E-755F-4AC1-AC2B-0C8DC24D4465}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -97,1012 +97,1018 @@
     <t>36,18%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>33,15%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
   </si>
   <si>
     <t>41,08%</t>
   </si>
   <si>
-    <t>44,11%</t>
+    <t>37,81%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>8,41%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
     <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB55063-113D-4D03-B993-F01F917E3FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C97A5A-6842-44D7-BBA1-1A45466C2F08}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2664,7 +2670,7 @@
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2673,13 +2679,13 @@
         <v>1352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2706,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2709,13 +2715,13 @@
         <v>661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2724,13 +2730,13 @@
         <v>661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2804,13 @@
         <v>128085</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>182</v>
@@ -2813,10 +2819,10 @@
         <v>125200</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>99</v>
@@ -3023,7 +3029,7 @@
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3038,7 +3044,7 @@
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3100,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C9E114-6ADA-47B3-A125-3844DCD204BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF7739-6455-406D-9F62-B84E4346780F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3782,13 +3788,13 @@
         <v>60816</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -3797,13 +3803,13 @@
         <v>57156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -3812,13 +3818,13 @@
         <v>117972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,10 +3839,10 @@
         <v>81164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>145</v>
@@ -3905,7 +3911,7 @@
         <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -3914,13 +3920,13 @@
         <v>20889</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3941,13 @@
         <v>2029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3956,7 +3962,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3965,13 +3971,13 @@
         <v>2029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3992,13 @@
         <v>687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4007,7 +4013,7 @@
         <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4016,13 +4022,13 @@
         <v>687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4096,13 @@
         <v>68477</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4105,13 +4111,13 @@
         <v>46663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
@@ -4120,13 +4126,13 @@
         <v>115140</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4147,13 @@
         <v>78491</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>140</v>
@@ -4156,10 +4162,10 @@
         <v>99419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>184</v>
@@ -4276,10 +4282,10 @@
         <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4300,13 @@
         <v>634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4309,13 +4315,13 @@
         <v>1741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4324,13 +4330,13 @@
         <v>2375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4404,13 @@
         <v>129293</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -4413,13 +4419,13 @@
         <v>103819</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M28" s="7">
         <v>339</v>
@@ -4428,13 +4434,13 @@
         <v>233112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4455,13 @@
         <v>159655</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -4464,13 +4470,13 @@
         <v>183869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>488</v>
@@ -4479,13 +4485,13 @@
         <v>343524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4506,13 @@
         <v>33575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -4515,13 +4521,13 @@
         <v>24132</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -4530,13 +4536,13 @@
         <v>57706</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4557,13 @@
         <v>5989</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4566,13 +4572,13 @@
         <v>2720</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -4581,13 +4587,13 @@
         <v>8709</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,7 +4608,7 @@
         <v>1321</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
@@ -4623,7 +4629,7 @@
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4694,7 +4700,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40300F7E-F2AC-4F42-A62F-7DADC7E4AAA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A57A8B-425A-4749-86D0-FCC4D3AD50B6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5400,10 +5406,10 @@
         <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
@@ -5412,13 +5418,13 @@
         <v>207769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5439,13 @@
         <v>67249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -5448,13 +5454,13 @@
         <v>77061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -5463,13 +5469,13 @@
         <v>144310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5490,13 @@
         <v>8982</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5499,7 +5505,7 @@
         <v>6977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>272</v>
@@ -5556,7 +5562,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5565,13 +5571,13 @@
         <v>1397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5598,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5607,7 +5613,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5616,7 +5622,7 @@
         <v>646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
@@ -5858,13 +5864,13 @@
         <v>3294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5873,13 +5879,13 @@
         <v>3294</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5900,13 @@
         <v>588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5909,13 +5915,13 @@
         <v>993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5924,13 +5930,13 @@
         <v>1580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6004,13 @@
         <v>193604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H28" s="7">
         <v>244</v>
@@ -6013,13 +6019,13 @@
         <v>173661</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>508</v>
@@ -6028,13 +6034,13 @@
         <v>367265</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6055,13 @@
         <v>138395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>224</v>
@@ -6064,13 +6070,13 @@
         <v>155025</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>414</v>
@@ -6079,13 +6085,13 @@
         <v>293420</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>58</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>335</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6106,13 @@
         <v>24162</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -6115,13 +6121,13 @@
         <v>22491</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -6130,13 +6136,13 @@
         <v>46653</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6157,13 @@
         <v>1397</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6166,13 +6172,13 @@
         <v>3294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -6181,13 +6187,13 @@
         <v>4691</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6208,13 @@
         <v>588</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>350</v>
+        <v>129</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6217,13 +6223,13 @@
         <v>1638</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6232,13 +6238,13 @@
         <v>2226</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>354</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,7 +6300,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5471D4D-BDD5-499D-A5ED-1083FF98AF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6337500D-A69B-4FF5-A34E-B1E9463EEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E30E470E-755F-4AC1-AC2B-0C8DC24D4465}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83C4CC20-E2DE-4828-BDDF-34835644EE84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="355">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,112 +94,112 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
   </si>
   <si>
     <t>54,91%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
   </si>
   <si>
     <t>54,38%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>3,53%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,14%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -214,862 +214,856 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>48,7%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>50,06%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
   </si>
   <si>
     <t>46,34%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
   </si>
   <si>
     <t>40,88%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>46,96%</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>54,06%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
   </si>
   <si>
     <t>51,42%</t>
   </si>
   <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
   </si>
   <si>
     <t>41,08%</t>
   </si>
   <si>
-    <t>37,81%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -1078,31 +1072,31 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>8,21%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -1520,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C97A5A-6842-44D7-BBA1-1A45466C2F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367CB863-B21E-4D4B-AAB2-017C16703021}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2182,10 +2176,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>51197</v>
+        <v>49238</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2197,10 +2191,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>49238</v>
+        <v>51197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2233,10 +2227,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D17" s="7">
-        <v>77701</v>
+        <v>67871</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2248,10 +2242,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7">
-        <v>67871</v>
+        <v>77701</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2284,10 +2278,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>10486</v>
+        <v>9065</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2299,10 +2293,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>9065</v>
+        <v>10486</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2335,10 +2329,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1496</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2350,16 +2344,16 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>49</v>
@@ -2374,7 +2368,7 @@
         <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>51</v>
@@ -2386,34 +2380,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>635</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2425,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>55</v>
@@ -2437,25 +2431,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126174</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>189</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126174</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -2490,10 +2484,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7">
-        <v>76888</v>
+        <v>75962</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>58</v>
@@ -2505,10 +2499,10 @@
         <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I22" s="7">
-        <v>75962</v>
+        <v>76888</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>61</v>
@@ -2541,10 +2535,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D23" s="7">
-        <v>103325</v>
+        <v>89871</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>67</v>
@@ -2556,10 +2550,10 @@
         <v>69</v>
       </c>
       <c r="H23" s="7">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="I23" s="7">
-        <v>89871</v>
+        <v>103325</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>70</v>
@@ -2592,10 +2586,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>23140</v>
+        <v>25495</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>76</v>
@@ -2607,10 +2601,10 @@
         <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I24" s="7">
-        <v>25495</v>
+        <v>23140</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>79</v>
@@ -2646,13 +2640,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>719</v>
+        <v>632</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>86</v>
@@ -2661,16 +2655,16 @@
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>632</v>
+        <v>719</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2679,13 +2673,13 @@
         <v>1352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,34 +2688,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2730,13 +2724,13 @@
         <v>661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,25 +2739,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>284</v>
+      </c>
+      <c r="D27" s="7">
+        <v>192621</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>284</v>
-      </c>
-      <c r="I27" s="7">
-        <v>192621</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -2798,34 +2792,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>182</v>
+      </c>
+      <c r="D28" s="7">
+        <v>125200</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="7">
         <v>194</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>128085</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="7">
-        <v>182</v>
-      </c>
-      <c r="I28" s="7">
-        <v>125200</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>376</v>
@@ -2834,13 +2828,13 @@
         <v>253285</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,34 +2843,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>236</v>
+      </c>
+      <c r="D29" s="7">
+        <v>157742</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="7">
         <v>270</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>181026</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="7">
-        <v>236</v>
-      </c>
-      <c r="I29" s="7">
-        <v>157742</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>506</v>
@@ -2885,13 +2879,13 @@
         <v>338767</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,34 +2894,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7">
+        <v>34560</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="7">
         <v>51</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>33626</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="7">
-        <v>53</v>
-      </c>
-      <c r="I30" s="7">
-        <v>34560</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>104</v>
@@ -2936,13 +2930,13 @@
         <v>68186</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,34 +2945,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>2216</v>
+        <v>632</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>123</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>632</v>
+        <v>2216</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2987,13 +2981,13 @@
         <v>2848</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,31 +2999,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3041,10 +3035,10 @@
         <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,25 +3047,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>473</v>
+      </c>
+      <c r="D33" s="7">
+        <v>318795</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>473</v>
-      </c>
-      <c r="I33" s="7">
-        <v>318795</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -3100,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF7739-6455-406D-9F62-B84E4346780F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161BA0DB-2F7C-42AC-8CAE-03F2EB49875D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3782,34 +3776,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>82</v>
+      </c>
+      <c r="D16" s="7">
+        <v>57156</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7">
         <v>89</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>60816</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="7">
-        <v>82</v>
-      </c>
-      <c r="I16" s="7">
-        <v>57156</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -3818,13 +3812,13 @@
         <v>117972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,34 +3827,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>119</v>
+      </c>
+      <c r="D17" s="7">
+        <v>84450</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="7">
         <v>114</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>81164</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="7">
-        <v>119</v>
-      </c>
-      <c r="I17" s="7">
-        <v>84450</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>233</v>
@@ -3869,13 +3863,13 @@
         <v>165613</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,34 +3878,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9536</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11354</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9536</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -3920,13 +3914,13 @@
         <v>20889</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,34 +3929,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>163</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3971,13 +3965,13 @@
         <v>2029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,34 +3980,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>687</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4022,13 +4016,13 @@
         <v>687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,25 +4031,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>215</v>
+      </c>
+      <c r="D21" s="7">
+        <v>151141</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>224</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156049</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>151141</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -4090,34 +4084,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7">
+        <v>46663</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="7">
         <v>101</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>68477</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="7">
-        <v>67</v>
-      </c>
-      <c r="I22" s="7">
-        <v>46663</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
@@ -4126,13 +4120,13 @@
         <v>115140</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,34 +4135,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>140</v>
+      </c>
+      <c r="D23" s="7">
+        <v>99419</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="7">
         <v>115</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>78491</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="7">
-        <v>140</v>
-      </c>
-      <c r="I23" s="7">
-        <v>99419</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>255</v>
@@ -4177,13 +4171,13 @@
         <v>177911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,34 +4186,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14596</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="7">
         <v>33</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>22221</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="7">
-        <v>21</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14596</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -4228,13 +4222,13 @@
         <v>36817</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,34 +4237,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2720</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3961</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2720</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4279,13 +4273,13 @@
         <v>6681</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,31 +4288,31 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>634</v>
+        <v>1741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>207</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1741</v>
+        <v>634</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>209</v>
@@ -4345,25 +4339,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>165139</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>256</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173784</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>165139</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -4398,10 +4392,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="D28" s="7">
-        <v>129293</v>
+        <v>103819</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>213</v>
@@ -4413,10 +4407,10 @@
         <v>215</v>
       </c>
       <c r="H28" s="7">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="I28" s="7">
-        <v>103819</v>
+        <v>129293</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>216</v>
@@ -4449,10 +4443,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D29" s="7">
-        <v>159655</v>
+        <v>183869</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>222</v>
@@ -4464,10 +4458,10 @@
         <v>224</v>
       </c>
       <c r="H29" s="7">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="I29" s="7">
-        <v>183869</v>
+        <v>159655</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>225</v>
@@ -4500,10 +4494,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D30" s="7">
-        <v>33575</v>
+        <v>24132</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>231</v>
@@ -4515,10 +4509,10 @@
         <v>233</v>
       </c>
       <c r="H30" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I30" s="7">
-        <v>24132</v>
+        <v>33575</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>234</v>
@@ -4539,10 +4533,10 @@
         <v>237</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,34 +4545,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2720</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5989</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2720</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -4587,13 +4581,13 @@
         <v>8709</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,31 +4599,31 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1321</v>
+        <v>1741</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>1741</v>
+        <v>1321</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4638,13 +4632,13 @@
         <v>3062</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,25 +4647,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>449</v>
+      </c>
+      <c r="D33" s="7">
+        <v>316280</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>329833</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>449</v>
-      </c>
-      <c r="I33" s="7">
-        <v>316280</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -4700,7 +4694,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A57A8B-425A-4749-86D0-FCC4D3AD50B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE52EE86-829B-4D83-AB2E-97A59C6C97AF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4737,7 +4731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5382,25 +5376,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>106471</v>
+        <v>101299</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I16" s="7">
-        <v>101299</v>
+        <v>106471</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>254</v>
@@ -5433,10 +5427,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7">
-        <v>67249</v>
+        <v>77061</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>260</v>
@@ -5448,10 +5442,10 @@
         <v>262</v>
       </c>
       <c r="H17" s="7">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>77061</v>
+        <v>67249</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>263</v>
@@ -5484,10 +5478,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>8982</v>
+        <v>6977</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>269</v>
@@ -5499,19 +5493,19 @@
         <v>271</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>6977</v>
+        <v>8982</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -5520,13 +5514,13 @@
         <v>15960</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5529,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1397</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
@@ -5550,19 +5544,19 @@
         <v>278</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5571,13 +5565,13 @@
         <v>1397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,34 +5580,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>282</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5622,13 +5616,13 @@
         <v>646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,25 +5631,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>256</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>184099</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -5690,13 +5684,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>87134</v>
+        <v>72362</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>285</v>
@@ -5705,10 +5699,10 @@
         <v>286</v>
       </c>
       <c r="H22" s="7">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="I22" s="7">
-        <v>72362</v>
+        <v>87134</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>287</v>
@@ -5741,10 +5735,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7">
-        <v>71147</v>
+        <v>77964</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>293</v>
@@ -5756,19 +5750,19 @@
         <v>295</v>
       </c>
       <c r="H23" s="7">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I23" s="7">
-        <v>77964</v>
+        <v>71147</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>208</v>
@@ -5777,13 +5771,13 @@
         <v>149111</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,34 +5786,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>15514</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" s="7">
         <v>22</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>15180</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H24" s="7">
-        <v>24</v>
-      </c>
-      <c r="I24" s="7">
-        <v>15514</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -5828,13 +5822,13 @@
         <v>30694</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,34 +5837,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>3294</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3294</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5879,13 +5873,13 @@
         <v>3294</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,31 +5891,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>588</v>
+        <v>993</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>993</v>
+        <v>588</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5930,13 +5924,13 @@
         <v>1580</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,25 +5939,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170127</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>242</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170127</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -5998,34 +5992,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>244</v>
+      </c>
+      <c r="D28" s="7">
+        <v>173661</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="7">
         <v>264</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>193604</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H28" s="7">
-        <v>244</v>
-      </c>
-      <c r="I28" s="7">
-        <v>173661</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>508</v>
@@ -6034,13 +6028,13 @@
         <v>367265</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,34 +6043,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>224</v>
+      </c>
+      <c r="D29" s="7">
+        <v>155025</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="7">
         <v>190</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>138395</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="H29" s="7">
-        <v>224</v>
-      </c>
-      <c r="I29" s="7">
-        <v>155025</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>414</v>
@@ -6085,13 +6079,13 @@
         <v>293420</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,31 +6097,31 @@
         <v>34</v>
       </c>
       <c r="D30" s="7">
-        <v>24162</v>
+        <v>22491</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
       </c>
       <c r="I30" s="7">
-        <v>22491</v>
+        <v>24162</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -6136,13 +6130,13 @@
         <v>46653</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,34 +6145,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3294</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>1397</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3294</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="K31" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -6187,13 +6181,13 @@
         <v>4691</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,34 +6196,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1638</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>588</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1638</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6238,13 +6232,13 @@
         <v>2226</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,25 +6247,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356110</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="7">
         <v>491</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>358146</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356110</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -6300,7 +6294,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
